--- a/public/Examples/example-3D.xlsx
+++ b/public/Examples/example-3D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Deepee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Deepee/Downloads/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFEE28-2F16-B04E-B266-E3B03A36FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6523CC8-A0B9-2949-8ECA-1627D464217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B2" s="2">
         <v>-114.13200620000001</v>
@@ -353,7 +353,7 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B3" s="2">
         <v>-114.132092</v>
@@ -364,10 +364,10 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>21.180399699999999</v>
+        <v>51.180399700000002</v>
       </c>
       <c r="B4" s="2">
-        <v>-114.1321993</v>
+        <v>-114.1351993</v>
       </c>
       <c r="C4" s="4">
         <v>1050</v>
@@ -375,10 +375,10 @@
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>21.180506900000001</v>
+        <v>51.180506899999997</v>
       </c>
       <c r="B5" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C5" s="4">
         <v>1050</v>
@@ -386,7 +386,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>21.1801821</v>
+        <v>51.180185100000003</v>
       </c>
       <c r="B6" s="2">
         <v>-114.13200620000001</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B7" s="2">
         <v>-114.1319847</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B8" s="2">
         <v>-114.1320276</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>21.1803782</v>
+        <v>51.1803782</v>
       </c>
       <c r="B9" s="2">
         <v>-114.1320705</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>21.1807108</v>
+        <v>51.1807108</v>
       </c>
       <c r="B10" s="2">
         <v>-114.1320705</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>21.1801636</v>
+        <v>51.1801636</v>
       </c>
       <c r="B11" s="2">
-        <v>-114.1321349</v>
+        <v>-114.1351349</v>
       </c>
       <c r="C11" s="4">
         <v>1050</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>21.180442599999999</v>
+        <v>51.180442599999999</v>
       </c>
       <c r="B12" s="2">
         <v>-114.1319847</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B13" s="2">
         <v>-114.1320491</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>21.180399699999999</v>
+        <v>51.180399700000002</v>
       </c>
       <c r="B14" s="2">
         <v>-114.1319203</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>21.180388900000001</v>
+        <v>51.180388899999997</v>
       </c>
       <c r="B15" s="2">
         <v>-114.13200620000001</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B16" s="2">
         <v>-114.13200620000001</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B17" s="2">
         <v>-114.13194180000001</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>21.180474799999999</v>
+        <v>51.180474799999999</v>
       </c>
       <c r="B18" s="2">
-        <v>-114.1321993</v>
+        <v>-114.1351993</v>
       </c>
       <c r="C18" s="4">
         <v>1050</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>21.1801529</v>
+        <v>51.180152900000003</v>
       </c>
       <c r="B19" s="2">
         <v>-114.1320276</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>21.1802709</v>
+        <v>51.180270899999996</v>
       </c>
       <c r="B20" s="2">
-        <v>-114.13217779999999</v>
+        <v>-114.13517779999999</v>
       </c>
       <c r="C20" s="4">
         <v>1050</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B21" s="2">
         <v>-114.1320491</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>21.1803782</v>
+        <v>51.1803782</v>
       </c>
       <c r="B22" s="2">
         <v>-114.13200620000001</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>21.180260199999999</v>
+        <v>51.180260199999999</v>
       </c>
       <c r="B23" s="2">
         <v>-114.132092</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>21.1803031</v>
+        <v>51.180303100000003</v>
       </c>
       <c r="B24" s="2">
         <v>-114.1320276</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>21.180228</v>
+        <v>51.180228</v>
       </c>
       <c r="B25" s="2">
         <v>-114.1320491</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>21.180281600000001</v>
+        <v>51.180281600000001</v>
       </c>
       <c r="B26" s="2">
         <v>-114.13200620000001</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B27" s="2">
         <v>-114.1319633</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>21.1803782</v>
+        <v>51.1803782</v>
       </c>
       <c r="B28" s="2">
         <v>-114.132092</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>21.180356700000001</v>
+        <v>51.180356699999997</v>
       </c>
       <c r="B29" s="2">
-        <v>-114.1321349</v>
+        <v>-114.1351349</v>
       </c>
       <c r="C29" s="4">
         <v>1050</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>21.1805606</v>
+        <v>51.1805606</v>
       </c>
       <c r="B30" s="2">
         <v>-114.13200620000001</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>21.180356700000001</v>
+        <v>51.180356699999997</v>
       </c>
       <c r="B31" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C31" s="4">
         <v>1050</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>21.180442599999999</v>
+        <v>51.180442599999999</v>
       </c>
       <c r="B32" s="2">
         <v>-114.132092</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>21.1801314</v>
+        <v>51.1801314</v>
       </c>
       <c r="B33" s="2">
         <v>-114.1320705</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>21.180249499999999</v>
+        <v>51.180249500000002</v>
       </c>
       <c r="B34" s="2">
         <v>-114.13200620000001</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>21.1804104</v>
+        <v>51.1804104</v>
       </c>
       <c r="B35" s="2">
         <v>-114.1320705</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>21.180367499999999</v>
+        <v>51.180367500000003</v>
       </c>
       <c r="B36" s="2">
         <v>-114.1320705</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>21.180228</v>
+        <v>51.180228</v>
       </c>
       <c r="B37" s="2">
         <v>-114.1320491</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B38" s="2">
         <v>-114.13200620000001</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>21.180228</v>
+        <v>51.180228</v>
       </c>
       <c r="B39" s="2">
-        <v>-114.1321993</v>
+        <v>-114.1351993</v>
       </c>
       <c r="C39" s="4">
         <v>1050</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>21.1804211</v>
+        <v>51.180451099999999</v>
       </c>
       <c r="B40" s="2">
-        <v>-114.13217779999999</v>
+        <v>-114.13517779999999</v>
       </c>
       <c r="C40" s="4">
         <v>1050</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>21.180367499999999</v>
+        <v>51.180367500000003</v>
       </c>
       <c r="B41" s="2">
         <v>-114.13224219999999</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>21.180142199999999</v>
+        <v>51.180142199999999</v>
       </c>
       <c r="B42" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C42" s="4">
         <v>1050</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B43" s="2">
         <v>-114.132328</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>21.180174399999999</v>
+        <v>51.180174399999999</v>
       </c>
       <c r="B44" s="2">
-        <v>-114.1325212</v>
+        <v>-114.13255119999999</v>
       </c>
       <c r="C44" s="4">
         <v>1050</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B45" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C45" s="4">
         <v>1050</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>21.1804104</v>
+        <v>51.1804104</v>
       </c>
       <c r="B46" s="2">
         <v>-114.13200620000001</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>21.180281600000001</v>
+        <v>51.180281600000001</v>
       </c>
       <c r="B47" s="2">
         <v>-114.1319847</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>21.1803782</v>
+        <v>51.1803782</v>
       </c>
       <c r="B48" s="2">
         <v>-114.1320276</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>21.180281600000001</v>
+        <v>51.180281600000001</v>
       </c>
       <c r="B49" s="2">
         <v>-114.1320705</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B50" s="2">
         <v>-114.1319203</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>21.180228</v>
+        <v>51.180228</v>
       </c>
       <c r="B51" s="2">
         <v>-114.13200620000001</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B52" s="2">
         <v>-114.1320491</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>21.180249499999999</v>
+        <v>51.180249500000002</v>
       </c>
       <c r="B53" s="2">
         <v>-114.1320491</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B54" s="2">
         <v>-114.132092</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>21.180399699999999</v>
+        <v>51.180399700000002</v>
       </c>
       <c r="B55" s="2">
         <v>-114.1320705</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>21.180431800000001</v>
+        <v>51.180431800000001</v>
       </c>
       <c r="B56" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C56" s="4">
         <v>1050</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>21.180388900000001</v>
+        <v>51.180388899999997</v>
       </c>
       <c r="B57" s="2">
         <v>-114.1320705</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>21.1804533</v>
+        <v>51.180453300000003</v>
       </c>
       <c r="B58" s="2">
-        <v>-114.1321135</v>
+        <v>-114.1351135</v>
       </c>
       <c r="C58" s="4">
         <v>1050</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>21.1801958</v>
+        <v>51.1801958</v>
       </c>
       <c r="B59" s="2">
         <v>-114.13200620000001</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B60" s="2">
-        <v>-114.13217779999999</v>
+        <v>-114.13517779999999</v>
       </c>
       <c r="C60" s="4">
         <v>1050</v>
@@ -991,10 +991,10 @@
     </row>
     <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>21.180356700000001</v>
+        <v>51.180356699999997</v>
       </c>
       <c r="B61" s="2">
-        <v>-114.1321135</v>
+        <v>-114.1351135</v>
       </c>
       <c r="C61" s="4">
         <v>1050</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B62" s="2">
         <v>-114.13200620000001</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>21.180260199999999</v>
+        <v>51.180260199999999</v>
       </c>
       <c r="B63" s="2">
         <v>-114.1320491</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B64" s="2">
         <v>-114.13200620000001</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>21.180388900000001</v>
+        <v>51.180388899999997</v>
       </c>
       <c r="B65" s="2">
         <v>-114.1320491</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B66" s="2">
         <v>-114.1320705</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B67" s="2">
         <v>-114.13200620000001</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>21.1802387</v>
+        <v>51.180238699999997</v>
       </c>
       <c r="B68" s="2">
         <v>-114.1320491</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>21.180367499999999</v>
+        <v>51.180367500000003</v>
       </c>
       <c r="B69" s="2">
         <v>-114.1320276</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>21.1802387</v>
+        <v>51.180238699999997</v>
       </c>
       <c r="B70" s="2">
         <v>-114.1320705</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>21.180367499999999</v>
+        <v>51.180367500000003</v>
       </c>
       <c r="B71" s="2">
         <v>-114.1320276</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>21.1803782</v>
+        <v>51.1803782</v>
       </c>
       <c r="B72" s="2">
         <v>-114.13200620000001</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>21.1803031</v>
+        <v>51.180303100000003</v>
       </c>
       <c r="B73" s="2">
         <v>-114.13200620000001</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>21.180367499999999</v>
+        <v>51.180367500000003</v>
       </c>
       <c r="B74" s="2">
         <v>-114.1320491</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>21.180249499999999</v>
+        <v>51.180249500000002</v>
       </c>
       <c r="B75" s="2">
         <v>-114.13200620000001</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B76" s="2">
         <v>-114.1319203</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B77" s="2">
         <v>-114.1319847</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>21.1803138</v>
+        <v>51.1803138</v>
       </c>
       <c r="B78" s="2">
         <v>-114.1320705</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>21.1802177</v>
+        <v>51.180517700000003</v>
       </c>
       <c r="B79" s="2">
         <v>-114.1313839</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B80" s="2">
         <v>-114.13200620000001</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>21.180206500000001</v>
+        <v>51.180206499999997</v>
       </c>
       <c r="B81" s="2">
         <v>-114.1320705</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B82" s="2">
         <v>-114.1320276</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>21.1803031</v>
+        <v>51.180303100000003</v>
       </c>
       <c r="B83" s="2">
-        <v>-114.1321135</v>
+        <v>-114.1351135</v>
       </c>
       <c r="C83" s="4">
         <v>1050</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>21.180356700000001</v>
+        <v>51.180356699999997</v>
       </c>
       <c r="B84" s="2">
         <v>-114.1320491</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B85" s="2">
         <v>-114.13200620000001</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
-        <v>21.180335299999999</v>
+        <v>51.180335300000003</v>
       </c>
       <c r="B86" s="2">
         <v>-114.1319847</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
-        <v>21.180346</v>
+        <v>51.180346</v>
       </c>
       <c r="B87" s="2">
         <v>-114.1320491</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>21.1805284</v>
+        <v>51.1805284</v>
       </c>
       <c r="B88" s="2">
-        <v>-114.1321564</v>
+        <v>-114.1351564</v>
       </c>
       <c r="C88" s="4">
         <v>1050</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>21.1804104</v>
+        <v>51.1804104</v>
       </c>
       <c r="B89" s="2">
         <v>-114.132092</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>21.180399699999999</v>
+        <v>51.180399700000002</v>
       </c>
       <c r="B90" s="2">
-        <v>-114.1321349</v>
+        <v>-114.1351349</v>
       </c>
       <c r="C90" s="4">
         <v>1050</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>21.180067099999999</v>
+        <v>51.180067100000002</v>
       </c>
       <c r="B91" s="2">
         <v>-114.1319633</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>21.180174399999999</v>
+        <v>51.180174399999999</v>
       </c>
       <c r="B92" s="2">
         <v>-114.1319847</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
-        <v>21.180324599999999</v>
+        <v>51.180324599999999</v>
       </c>
       <c r="B93" s="2">
         <v>-114.1320276</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
-        <v>21.180206500000001</v>
+        <v>51.180206499999997</v>
       </c>
       <c r="B94" s="2">
         <v>-114.1320705</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B95" s="2">
-        <v>-114.1321135</v>
+        <v>-114.1351135</v>
       </c>
       <c r="C95" s="4">
         <v>1050</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>21.180260199999999</v>
+        <v>51.180260199999999</v>
       </c>
       <c r="B96" s="2">
         <v>-114.13194180000001</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>21.1801207</v>
+        <v>51.180120700000003</v>
       </c>
       <c r="B97" s="2">
         <v>-114.13194180000001</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>21.180249499999999</v>
+        <v>51.180249500000002</v>
       </c>
       <c r="B98" s="2">
         <v>-114.13194180000001</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>21.1801314</v>
+        <v>51.1801314</v>
       </c>
       <c r="B99" s="2">
         <v>-114.1320491</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B100" s="2">
         <v>-114.1320491</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>21.180292399999999</v>
+        <v>51.180292399999999</v>
       </c>
       <c r="B101" s="2">
         <v>-114.1320276</v>
